--- a/biology/Botanique/Hansa_(rose)/Hansa_(rose).xlsx
+++ b/biology/Botanique/Hansa_(rose)/Hansa_(rose).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 'Hansa' (ce qui signifie la Hanse en latin) est un cultivar de rosier, hybride de Rosa rugosa. Ce rosier, originaire de Hollande aux Pays-Bas, a été obtenu en 1905 par Schaum et Van Tol.
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ses fleurs, simples ou semi-doubles bien parfumées évoquant la girofle, sont rouge-violacé tirant sur le pourpre et fleurissent de fin mai à octobre[1]. Elles laissent place à l'automne à des fruits rouges fort décoratifs qui peuvent servir à des infusions et à la nourriture des oiseaux. Son feuillage est vert foncé et ses feuilles mesurent de 10 à 12 cm. Ce rosier résistant peut former des haies aussi larges que hautes, jusqu'à 1,20 m - 1,50 m qui résistent au vent. Il préfère l'exposition au soleil. Il est nécessaire de couper ses branches anciennes ou faibles tous les trois[2] ou cinq ans. Il vit une quarantaine d'années. 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses fleurs, simples ou semi-doubles bien parfumées évoquant la girofle, sont rouge-violacé tirant sur le pourpre et fleurissent de fin mai à octobre. Elles laissent place à l'automne à des fruits rouges fort décoratifs qui peuvent servir à des infusions et à la nourriture des oiseaux. Son feuillage est vert foncé et ses feuilles mesurent de 10 à 12 cm. Ce rosier résistant peut former des haies aussi larges que hautes, jusqu'à 1,20 m - 1,50 m qui résistent au vent. Il préfère l'exposition au soleil. Il est nécessaire de couper ses branches anciennes ou faibles tous les trois ou cinq ans. Il vit une quarantaine d'années. 
 </t>
         </is>
       </c>
